--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5537783333333334</v>
+        <v>6.921489999999999</v>
       </c>
       <c r="H2">
-        <v>1.661335</v>
+        <v>20.76447</v>
       </c>
       <c r="I2">
-        <v>0.0006618684700830566</v>
+        <v>0.005443932902924165</v>
       </c>
       <c r="J2">
-        <v>0.0006618684700830566</v>
+        <v>0.005443932902924165</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.972749000000001</v>
+        <v>7.806827333333334</v>
       </c>
       <c r="N2">
-        <v>14.918247</v>
+        <v>23.420482</v>
       </c>
       <c r="O2">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="P2">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="Q2">
-        <v>2.753800653305001</v>
+        <v>54.03487731939333</v>
       </c>
       <c r="R2">
-        <v>24.78420587974501</v>
+        <v>486.31389587454</v>
       </c>
       <c r="S2">
-        <v>8.392394276906226E-05</v>
+        <v>0.001940411827852471</v>
       </c>
       <c r="T2">
-        <v>8.392394276906223E-05</v>
+        <v>0.001940411827852471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5537783333333334</v>
+        <v>6.921489999999999</v>
       </c>
       <c r="H3">
-        <v>1.661335</v>
+        <v>20.76447</v>
       </c>
       <c r="I3">
-        <v>0.0006618684700830566</v>
+        <v>0.005443932902924165</v>
       </c>
       <c r="J3">
-        <v>0.0006618684700830566</v>
+        <v>0.005443932902924165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.661741999999999</v>
+        <v>4.661742</v>
       </c>
       <c r="N3">
         <v>13.985226</v>
       </c>
       <c r="O3">
-        <v>0.118868253461235</v>
+        <v>0.2128407641993771</v>
       </c>
       <c r="P3">
-        <v>0.118868253461235</v>
+        <v>0.212840764199377</v>
       </c>
       <c r="Q3">
-        <v>2.58157171519</v>
+        <v>32.26620063558</v>
       </c>
       <c r="R3">
-        <v>23.23414543671</v>
+        <v>290.39580572022</v>
       </c>
       <c r="S3">
-        <v>7.867514905983262E-05</v>
+        <v>0.001158690839308512</v>
       </c>
       <c r="T3">
-        <v>7.867514905983262E-05</v>
+        <v>0.001158690839308512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5537783333333334</v>
+        <v>6.921489999999999</v>
       </c>
       <c r="H4">
-        <v>1.661335</v>
+        <v>20.76447</v>
       </c>
       <c r="I4">
-        <v>0.0006618684700830566</v>
+        <v>0.005443932902924165</v>
       </c>
       <c r="J4">
-        <v>0.0006618684700830566</v>
+        <v>0.005443932902924165</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.194976</v>
+        <v>2.225227333333333</v>
       </c>
       <c r="N4">
-        <v>21.584928</v>
+        <v>6.675682</v>
       </c>
       <c r="O4">
-        <v>0.1834623689632552</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="P4">
-        <v>0.1834623689632551</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="Q4">
-        <v>3.984421817653333</v>
+        <v>15.40188873539333</v>
       </c>
       <c r="R4">
-        <v>35.85979635888</v>
+        <v>138.61699861854</v>
       </c>
       <c r="S4">
-        <v>0.0001214279574635229</v>
+        <v>0.0005530873494312303</v>
       </c>
       <c r="T4">
-        <v>0.0001214279574635229</v>
+        <v>0.0005530873494312303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5537783333333334</v>
+        <v>6.921489999999999</v>
       </c>
       <c r="H5">
-        <v>1.661335</v>
+        <v>20.76447</v>
       </c>
       <c r="I5">
-        <v>0.0006618684700830566</v>
+        <v>0.005443932902924165</v>
       </c>
       <c r="J5">
-        <v>0.0006618684700830566</v>
+        <v>0.005443932902924165</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.546219000000001</v>
+        <v>2.309581</v>
       </c>
       <c r="N5">
-        <v>16.638657</v>
+        <v>6.928743</v>
       </c>
       <c r="O5">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521494</v>
       </c>
       <c r="P5">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521493</v>
       </c>
       <c r="Q5">
-        <v>3.071375914121667</v>
+        <v>15.98574179569</v>
       </c>
       <c r="R5">
-        <v>27.64238322709501</v>
+        <v>143.87167616121</v>
       </c>
       <c r="S5">
-        <v>9.360226424874562E-05</v>
+        <v>0.0005740537222654092</v>
       </c>
       <c r="T5">
-        <v>9.360226424874562E-05</v>
+        <v>0.0005740537222654091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5537783333333334</v>
+        <v>6.921489999999999</v>
       </c>
       <c r="H6">
-        <v>1.661335</v>
+        <v>20.76447</v>
       </c>
       <c r="I6">
-        <v>0.0006618684700830566</v>
+        <v>0.005443932902924165</v>
       </c>
       <c r="J6">
-        <v>0.0006618684700830566</v>
+        <v>0.005443932902924165</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.29111</v>
+        <v>2.936864333333334</v>
       </c>
       <c r="N6">
-        <v>6.873330000000001</v>
+        <v>8.810593000000001</v>
       </c>
       <c r="O6">
-        <v>0.05842027383488195</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="P6">
-        <v>0.05842027383488194</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="Q6">
-        <v>1.268767077283333</v>
+        <v>20.32747711452333</v>
       </c>
       <c r="R6">
-        <v>11.41890369555</v>
+        <v>182.94729403071</v>
       </c>
       <c r="S6">
-        <v>3.866653726492654E-05</v>
+        <v>0.0007299669950257295</v>
       </c>
       <c r="T6">
-        <v>3.866653726492654E-05</v>
+        <v>0.0007299669950257294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5537783333333334</v>
+        <v>6.921489999999999</v>
       </c>
       <c r="H7">
-        <v>1.661335</v>
+        <v>20.76447</v>
       </c>
       <c r="I7">
-        <v>0.0006618684700830566</v>
+        <v>0.005443932902924165</v>
       </c>
       <c r="J7">
-        <v>0.0006618684700830566</v>
+        <v>0.005443932902924165</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.550925</v>
+        <v>1.962244666666667</v>
       </c>
       <c r="N7">
-        <v>43.652775</v>
+        <v>5.886734000000001</v>
       </c>
       <c r="O7">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="P7">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="Q7">
-        <v>8.057986994958334</v>
+        <v>13.58165683788667</v>
       </c>
       <c r="R7">
-        <v>72.52188295462501</v>
+        <v>122.23491154098</v>
       </c>
       <c r="S7">
-        <v>0.0002455726192769667</v>
+        <v>0.0004877221690408118</v>
       </c>
       <c r="T7">
-        <v>0.0002455726192769666</v>
+        <v>0.0004877221690408118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>29.284205</v>
       </c>
       <c r="I8">
-        <v>0.01166669694008047</v>
+        <v>0.007677597701047815</v>
       </c>
       <c r="J8">
-        <v>0.01166669694008047</v>
+        <v>0.007677597701047817</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.972749000000001</v>
+        <v>7.806827333333334</v>
       </c>
       <c r="N8">
-        <v>14.918247</v>
+        <v>23.420482</v>
       </c>
       <c r="O8">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="P8">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="Q8">
-        <v>48.54100037651501</v>
+        <v>76.20557734297888</v>
       </c>
       <c r="R8">
-        <v>436.8690033886351</v>
+        <v>685.85019608681</v>
       </c>
       <c r="S8">
-        <v>0.001479319911070005</v>
+        <v>0.002736569618740881</v>
       </c>
       <c r="T8">
-        <v>0.001479319911070005</v>
+        <v>0.002736569618740882</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>29.284205</v>
       </c>
       <c r="I9">
-        <v>0.01166669694008047</v>
+        <v>0.007677597701047815</v>
       </c>
       <c r="J9">
-        <v>0.01166669694008047</v>
+        <v>0.007677597701047817</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.661741999999999</v>
+        <v>4.661742</v>
       </c>
       <c r="N9">
         <v>13.985226</v>
       </c>
       <c r="O9">
-        <v>0.118868253461235</v>
+        <v>0.2128407641993771</v>
       </c>
       <c r="P9">
-        <v>0.118868253461235</v>
+        <v>0.212840764199377</v>
       </c>
       <c r="Q9">
-        <v>45.50513612836999</v>
+        <v>45.50513612837</v>
       </c>
       <c r="R9">
         <v>409.54622515533</v>
       </c>
       <c r="S9">
-        <v>0.001386799888928901</v>
+        <v>0.001634105761906397</v>
       </c>
       <c r="T9">
-        <v>0.001386799888928901</v>
+        <v>0.001634105761906397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>29.284205</v>
       </c>
       <c r="I10">
-        <v>0.01166669694008047</v>
+        <v>0.007677597701047815</v>
       </c>
       <c r="J10">
-        <v>0.01166669694008047</v>
+        <v>0.007677597701047817</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.194976</v>
+        <v>2.225227333333333</v>
       </c>
       <c r="N10">
-        <v>21.584928</v>
+        <v>6.675682</v>
       </c>
       <c r="O10">
-        <v>0.1834623689632552</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="P10">
-        <v>0.1834623689632551</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="Q10">
-        <v>70.23305071802666</v>
+        <v>21.72133780031222</v>
       </c>
       <c r="R10">
-        <v>632.09745646224</v>
+        <v>195.49204020281</v>
       </c>
       <c r="S10">
-        <v>0.002140399858603524</v>
+        <v>0.0007800210322560981</v>
       </c>
       <c r="T10">
-        <v>0.002140399858603524</v>
+        <v>0.0007800210322560983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>29.284205</v>
       </c>
       <c r="I11">
-        <v>0.01166669694008047</v>
+        <v>0.007677597701047815</v>
       </c>
       <c r="J11">
-        <v>0.01166669694008047</v>
+        <v>0.007677597701047817</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.546219000000001</v>
+        <v>2.309581</v>
       </c>
       <c r="N11">
-        <v>16.638657</v>
+        <v>6.928743</v>
       </c>
       <c r="O11">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521494</v>
       </c>
       <c r="P11">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521493</v>
       </c>
       <c r="Q11">
-        <v>54.13887139029833</v>
+        <v>22.54474782270167</v>
       </c>
       <c r="R11">
-        <v>487.2498425126851</v>
+        <v>202.902730404315</v>
       </c>
       <c r="S11">
-        <v>0.001649918827162756</v>
+        <v>0.0008095899815325556</v>
       </c>
       <c r="T11">
-        <v>0.001649918827162756</v>
+        <v>0.0008095899815325556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>29.284205</v>
       </c>
       <c r="I12">
-        <v>0.01166669694008047</v>
+        <v>0.007677597701047815</v>
       </c>
       <c r="J12">
-        <v>0.01166669694008047</v>
+        <v>0.007677597701047817</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.29111</v>
+        <v>2.936864333333334</v>
       </c>
       <c r="N12">
-        <v>6.873330000000001</v>
+        <v>8.810593000000001</v>
       </c>
       <c r="O12">
-        <v>0.05842027383488195</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="P12">
-        <v>0.05842027383488194</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="Q12">
-        <v>22.36444497251667</v>
+        <v>28.66791239817389</v>
       </c>
       <c r="R12">
-        <v>201.28000475265</v>
+        <v>258.011211583565</v>
       </c>
       <c r="S12">
-        <v>0.0006815716299880806</v>
+        <v>0.001029475017930506</v>
       </c>
       <c r="T12">
-        <v>0.0006815716299880805</v>
+        <v>0.001029475017930506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>29.284205</v>
       </c>
       <c r="I13">
-        <v>0.01166669694008047</v>
+        <v>0.007677597701047815</v>
       </c>
       <c r="J13">
-        <v>0.01166669694008047</v>
+        <v>0.007677597701047817</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.550925</v>
+        <v>1.962244666666667</v>
       </c>
       <c r="N13">
-        <v>43.652775</v>
+        <v>5.886734000000001</v>
       </c>
       <c r="O13">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="P13">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="Q13">
-        <v>142.0374235465416</v>
+        <v>19.15425835960778</v>
       </c>
       <c r="R13">
-        <v>1278.336811918875</v>
+        <v>172.38832523647</v>
       </c>
       <c r="S13">
-        <v>0.004328686824327209</v>
+        <v>0.0006878362886813766</v>
       </c>
       <c r="T13">
-        <v>0.004328686824327208</v>
+        <v>0.0006878362886813768</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>344.8372753333334</v>
+        <v>417.9598286666667</v>
       </c>
       <c r="H14">
-        <v>1034.511826</v>
+        <v>1253.879486</v>
       </c>
       <c r="I14">
-        <v>0.4121449072928995</v>
+        <v>0.3287363361615798</v>
       </c>
       <c r="J14">
-        <v>0.4121449072928995</v>
+        <v>0.3287363361615799</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.972749000000001</v>
+        <v>7.806827333333334</v>
       </c>
       <c r="N14">
-        <v>14.918247</v>
+        <v>23.420482</v>
       </c>
       <c r="O14">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="P14">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="Q14">
-        <v>1714.789216076559</v>
+        <v>3262.94021467025</v>
       </c>
       <c r="R14">
-        <v>15433.10294468903</v>
+        <v>29366.46193203225</v>
       </c>
       <c r="S14">
-        <v>0.05225936447443898</v>
+        <v>0.1171733535860042</v>
       </c>
       <c r="T14">
-        <v>0.05225936447443897</v>
+        <v>0.1171733535860042</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>344.8372753333334</v>
+        <v>417.9598286666667</v>
       </c>
       <c r="H15">
-        <v>1034.511826</v>
+        <v>1253.879486</v>
       </c>
       <c r="I15">
-        <v>0.4121449072928995</v>
+        <v>0.3287363361615798</v>
       </c>
       <c r="J15">
-        <v>0.4121449072928995</v>
+        <v>0.3287363361615799</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.661741999999999</v>
+        <v>4.661742</v>
       </c>
       <c r="N15">
         <v>13.985226</v>
       </c>
       <c r="O15">
-        <v>0.118868253461235</v>
+        <v>0.2128407641993771</v>
       </c>
       <c r="P15">
-        <v>0.118868253461235</v>
+        <v>0.212840764199377</v>
       </c>
       <c r="Q15">
-        <v>1607.542409586964</v>
+        <v>1948.420887608204</v>
       </c>
       <c r="R15">
-        <v>14467.88168628268</v>
+        <v>17535.78798847384</v>
       </c>
       <c r="S15">
-        <v>0.04899094530284959</v>
+        <v>0.06996849300873396</v>
       </c>
       <c r="T15">
-        <v>0.04899094530284959</v>
+        <v>0.06996849300873396</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>344.8372753333334</v>
+        <v>417.9598286666667</v>
       </c>
       <c r="H16">
-        <v>1034.511826</v>
+        <v>1253.879486</v>
       </c>
       <c r="I16">
-        <v>0.4121449072928995</v>
+        <v>0.3287363361615798</v>
       </c>
       <c r="J16">
-        <v>0.4121449072928995</v>
+        <v>0.3287363361615799</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.194976</v>
+        <v>2.225227333333333</v>
       </c>
       <c r="N16">
-        <v>21.584928</v>
+        <v>6.675682</v>
       </c>
       <c r="O16">
-        <v>0.1834623689632552</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="P16">
-        <v>0.1834623689632551</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="Q16">
-        <v>2481.095919928725</v>
+        <v>930.0556349843836</v>
       </c>
       <c r="R16">
-        <v>22329.86327935853</v>
+        <v>8370.500714859452</v>
       </c>
       <c r="S16">
-        <v>0.07561308104809653</v>
+        <v>0.03339863148050171</v>
       </c>
       <c r="T16">
-        <v>0.07561308104809651</v>
+        <v>0.03339863148050172</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>344.8372753333334</v>
+        <v>417.9598286666667</v>
       </c>
       <c r="H17">
-        <v>1034.511826</v>
+        <v>1253.879486</v>
       </c>
       <c r="I17">
-        <v>0.4121449072928995</v>
+        <v>0.3287363361615798</v>
       </c>
       <c r="J17">
-        <v>0.4121449072928995</v>
+        <v>0.3287363361615799</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.546219000000001</v>
+        <v>2.309581</v>
       </c>
       <c r="N17">
-        <v>16.638657</v>
+        <v>6.928743</v>
       </c>
       <c r="O17">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521494</v>
       </c>
       <c r="P17">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521493</v>
       </c>
       <c r="Q17">
-        <v>1912.543048361965</v>
+        <v>965.3120790517887</v>
       </c>
       <c r="R17">
-        <v>17212.88743525769</v>
+        <v>8687.808711466098</v>
       </c>
       <c r="S17">
-        <v>0.05828604664664523</v>
+        <v>0.03466470303410287</v>
       </c>
       <c r="T17">
-        <v>0.05828604664664523</v>
+        <v>0.03466470303410287</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>344.8372753333334</v>
+        <v>417.9598286666667</v>
       </c>
       <c r="H18">
-        <v>1034.511826</v>
+        <v>1253.879486</v>
       </c>
       <c r="I18">
-        <v>0.4121449072928995</v>
+        <v>0.3287363361615798</v>
       </c>
       <c r="J18">
-        <v>0.4121449072928995</v>
+        <v>0.3287363361615799</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.29111</v>
+        <v>2.936864333333334</v>
       </c>
       <c r="N18">
-        <v>6.873330000000001</v>
+        <v>8.810593000000001</v>
       </c>
       <c r="O18">
-        <v>0.05842027383488195</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="P18">
-        <v>0.05842027383488194</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="Q18">
-        <v>790.0601298889535</v>
+        <v>1227.491313577244</v>
       </c>
       <c r="R18">
-        <v>7110.541169000582</v>
+        <v>11047.4218221952</v>
       </c>
       <c r="S18">
-        <v>0.02407761834370323</v>
+        <v>0.04407965339446788</v>
       </c>
       <c r="T18">
-        <v>0.02407761834370322</v>
+        <v>0.04407965339446787</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>344.8372753333334</v>
+        <v>417.9598286666667</v>
       </c>
       <c r="H19">
-        <v>1034.511826</v>
+        <v>1253.879486</v>
       </c>
       <c r="I19">
-        <v>0.4121449072928995</v>
+        <v>0.3287363361615798</v>
       </c>
       <c r="J19">
-        <v>0.4121449072928995</v>
+        <v>0.3287363361615799</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.550925</v>
+        <v>1.962244666666667</v>
       </c>
       <c r="N19">
-        <v>43.652775</v>
+        <v>5.886734000000001</v>
       </c>
       <c r="O19">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="P19">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="Q19">
-        <v>5017.701330579684</v>
+        <v>820.1394446820806</v>
       </c>
       <c r="R19">
-        <v>45159.31197521716</v>
+        <v>7381.255002138725</v>
       </c>
       <c r="S19">
-        <v>0.152917851477166</v>
+        <v>0.02945150165776917</v>
       </c>
       <c r="T19">
-        <v>0.152917851477166</v>
+        <v>0.02945150165776917</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.621641666666667</v>
+        <v>18.99214766666667</v>
       </c>
       <c r="H20">
-        <v>25.864925</v>
+        <v>56.976443</v>
       </c>
       <c r="I20">
-        <v>0.01030447100588563</v>
+        <v>0.01493782084200961</v>
       </c>
       <c r="J20">
-        <v>0.01030447100588563</v>
+        <v>0.01493782084200961</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.972749000000001</v>
+        <v>7.806827333333334</v>
       </c>
       <c r="N20">
-        <v>14.918247</v>
+        <v>23.420482</v>
       </c>
       <c r="O20">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="P20">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="Q20">
-        <v>42.87325997627502</v>
+        <v>148.2684175228362</v>
       </c>
       <c r="R20">
-        <v>385.8593397864751</v>
+        <v>1334.415757705526</v>
       </c>
       <c r="S20">
-        <v>0.001306591678033682</v>
+        <v>0.005324372059877384</v>
       </c>
       <c r="T20">
-        <v>0.001306591678033682</v>
+        <v>0.005324372059877383</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.621641666666667</v>
+        <v>18.99214766666667</v>
       </c>
       <c r="H21">
-        <v>25.864925</v>
+        <v>56.976443</v>
       </c>
       <c r="I21">
-        <v>0.01030447100588563</v>
+        <v>0.01493782084200961</v>
       </c>
       <c r="J21">
-        <v>0.01030447100588563</v>
+        <v>0.01493782084200961</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.661741999999999</v>
+        <v>4.661742</v>
       </c>
       <c r="N21">
         <v>13.985226</v>
       </c>
       <c r="O21">
-        <v>0.118868253461235</v>
+        <v>0.2128407641993771</v>
       </c>
       <c r="P21">
-        <v>0.118868253461235</v>
+        <v>0.212840764199377</v>
       </c>
       <c r="Q21">
-        <v>40.19186906645</v>
+        <v>88.53649244790201</v>
       </c>
       <c r="R21">
-        <v>361.72682159805</v>
+        <v>796.828432031118</v>
       </c>
       <c r="S21">
-        <v>0.00122487447131156</v>
+        <v>0.003179377203486707</v>
       </c>
       <c r="T21">
-        <v>0.00122487447131156</v>
+        <v>0.003179377203486706</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.621641666666667</v>
+        <v>18.99214766666667</v>
       </c>
       <c r="H22">
-        <v>25.864925</v>
+        <v>56.976443</v>
       </c>
       <c r="I22">
-        <v>0.01030447100588563</v>
+        <v>0.01493782084200961</v>
       </c>
       <c r="J22">
-        <v>0.01030447100588563</v>
+        <v>0.01493782084200961</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.194976</v>
+        <v>2.225227333333333</v>
       </c>
       <c r="N22">
-        <v>21.584928</v>
+        <v>6.675682</v>
       </c>
       <c r="O22">
-        <v>0.1834623689632552</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="P22">
-        <v>0.1834623689632551</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="Q22">
-        <v>62.03250487226666</v>
+        <v>42.26184610656956</v>
       </c>
       <c r="R22">
-        <v>558.2925438504</v>
+        <v>380.356614959126</v>
       </c>
       <c r="S22">
-        <v>0.001890482661652954</v>
+        <v>0.001517638053795237</v>
       </c>
       <c r="T22">
-        <v>0.001890482661652954</v>
+        <v>0.001517638053795237</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.621641666666667</v>
+        <v>18.99214766666667</v>
       </c>
       <c r="H23">
-        <v>25.864925</v>
+        <v>56.976443</v>
       </c>
       <c r="I23">
-        <v>0.01030447100588563</v>
+        <v>0.01493782084200961</v>
       </c>
       <c r="J23">
-        <v>0.01030447100588563</v>
+        <v>0.01493782084200961</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.546219000000001</v>
+        <v>2.309581</v>
       </c>
       <c r="N23">
-        <v>16.638657</v>
+        <v>6.928743</v>
       </c>
       <c r="O23">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521494</v>
       </c>
       <c r="P23">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521493</v>
       </c>
       <c r="Q23">
-        <v>47.81751282285834</v>
+        <v>43.86390340012767</v>
       </c>
       <c r="R23">
-        <v>430.357615405725</v>
+        <v>394.775130601149</v>
       </c>
       <c r="S23">
-        <v>0.00145727113714211</v>
+        <v>0.001575168505894585</v>
       </c>
       <c r="T23">
-        <v>0.00145727113714211</v>
+        <v>0.001575168505894584</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.621641666666667</v>
+        <v>18.99214766666667</v>
       </c>
       <c r="H24">
-        <v>25.864925</v>
+        <v>56.976443</v>
       </c>
       <c r="I24">
-        <v>0.01030447100588563</v>
+        <v>0.01493782084200961</v>
       </c>
       <c r="J24">
-        <v>0.01030447100588563</v>
+        <v>0.01493782084200961</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.29111</v>
+        <v>2.936864333333334</v>
       </c>
       <c r="N24">
-        <v>6.873330000000001</v>
+        <v>8.810593000000001</v>
       </c>
       <c r="O24">
-        <v>0.05842027383488195</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="P24">
-        <v>0.05842027383488194</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="Q24">
-        <v>19.75312943891667</v>
+        <v>55.77736109563323</v>
       </c>
       <c r="R24">
-        <v>177.77816495025</v>
+        <v>501.9962498606991</v>
       </c>
       <c r="S24">
-        <v>0.00060199001788744</v>
+        <v>0.002002985045318506</v>
       </c>
       <c r="T24">
-        <v>0.0006019900178874397</v>
+        <v>0.002002985045318506</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.621641666666667</v>
+        <v>18.99214766666667</v>
       </c>
       <c r="H25">
-        <v>25.864925</v>
+        <v>56.976443</v>
       </c>
       <c r="I25">
-        <v>0.01030447100588563</v>
+        <v>0.01493782084200961</v>
       </c>
       <c r="J25">
-        <v>0.01030447100588563</v>
+        <v>0.01493782084200961</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.550925</v>
+        <v>1.962244666666667</v>
       </c>
       <c r="N25">
-        <v>43.652775</v>
+        <v>5.886734000000001</v>
       </c>
       <c r="O25">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="P25">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="Q25">
-        <v>125.4528612685417</v>
+        <v>37.26724046746245</v>
       </c>
       <c r="R25">
-        <v>1129.075751416875</v>
+        <v>335.405164207162</v>
       </c>
       <c r="S25">
-        <v>0.003823261039857884</v>
+        <v>0.001338279973637188</v>
       </c>
       <c r="T25">
-        <v>0.003823261039857882</v>
+        <v>0.001338279973637188</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>190.103058</v>
+        <v>151.2205863333333</v>
       </c>
       <c r="H26">
-        <v>570.309174</v>
+        <v>453.661759</v>
       </c>
       <c r="I26">
-        <v>0.2272086367106644</v>
+        <v>0.1189389460274475</v>
       </c>
       <c r="J26">
-        <v>0.2272086367106644</v>
+        <v>0.1189389460274475</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.972749000000001</v>
+        <v>7.806827333333334</v>
       </c>
       <c r="N26">
-        <v>14.918247</v>
+        <v>23.420482</v>
       </c>
       <c r="O26">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="P26">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="Q26">
-        <v>945.3347915664423</v>
+        <v>1180.55300674976</v>
       </c>
       <c r="R26">
-        <v>8508.013124097979</v>
+        <v>10624.97706074784</v>
       </c>
       <c r="S26">
-        <v>0.0288097189786811</v>
+        <v>0.04239408195865135</v>
       </c>
       <c r="T26">
-        <v>0.02880971897868109</v>
+        <v>0.04239408195865135</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>190.103058</v>
+        <v>151.2205863333333</v>
       </c>
       <c r="H27">
-        <v>570.309174</v>
+        <v>453.661759</v>
       </c>
       <c r="I27">
-        <v>0.2272086367106644</v>
+        <v>0.1189389460274475</v>
       </c>
       <c r="J27">
-        <v>0.2272086367106644</v>
+        <v>0.1189389460274475</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.661741999999999</v>
+        <v>4.661742</v>
       </c>
       <c r="N27">
         <v>13.985226</v>
       </c>
       <c r="O27">
-        <v>0.118868253461235</v>
+        <v>0.2128407641993771</v>
       </c>
       <c r="P27">
-        <v>0.118868253461235</v>
+        <v>0.212840764199377</v>
       </c>
       <c r="Q27">
-        <v>886.2114098070359</v>
+        <v>704.951358574726</v>
       </c>
       <c r="R27">
-        <v>7975.902688263323</v>
+        <v>6344.562227172534</v>
       </c>
       <c r="S27">
-        <v>0.02700789381710493</v>
+        <v>0.02531505616555038</v>
       </c>
       <c r="T27">
-        <v>0.02700789381710493</v>
+        <v>0.02531505616555038</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>190.103058</v>
+        <v>151.2205863333333</v>
       </c>
       <c r="H28">
-        <v>570.309174</v>
+        <v>453.661759</v>
       </c>
       <c r="I28">
-        <v>0.2272086367106644</v>
+        <v>0.1189389460274475</v>
       </c>
       <c r="J28">
-        <v>0.2272086367106644</v>
+        <v>0.1189389460274475</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.194976</v>
+        <v>2.225227333333333</v>
       </c>
       <c r="N28">
-        <v>21.584928</v>
+        <v>6.675682</v>
       </c>
       <c r="O28">
-        <v>0.1834623689632552</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="P28">
-        <v>0.1834623689632551</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="Q28">
-        <v>1367.786939836608</v>
+        <v>336.5001820716264</v>
       </c>
       <c r="R28">
-        <v>12310.08245852947</v>
+        <v>3028.501638644638</v>
       </c>
       <c r="S28">
-        <v>0.04168423473985012</v>
+        <v>0.01208384224705083</v>
       </c>
       <c r="T28">
-        <v>0.04168423473985011</v>
+        <v>0.01208384224705083</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>190.103058</v>
+        <v>151.2205863333333</v>
       </c>
       <c r="H29">
-        <v>570.309174</v>
+        <v>453.661759</v>
       </c>
       <c r="I29">
-        <v>0.2272086367106644</v>
+        <v>0.1189389460274475</v>
       </c>
       <c r="J29">
-        <v>0.2272086367106644</v>
+        <v>0.1189389460274475</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.546219000000001</v>
+        <v>2.309581</v>
       </c>
       <c r="N29">
-        <v>16.638657</v>
+        <v>6.928743</v>
       </c>
       <c r="O29">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521494</v>
       </c>
       <c r="P29">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521493</v>
       </c>
       <c r="Q29">
-        <v>1054.353192237702</v>
+        <v>349.2561930043263</v>
       </c>
       <c r="R29">
-        <v>9489.17873013932</v>
+        <v>3143.305737038937</v>
       </c>
       <c r="S29">
-        <v>0.03213212868460114</v>
+        <v>0.01254191517546188</v>
       </c>
       <c r="T29">
-        <v>0.03213212868460114</v>
+        <v>0.01254191517546188</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>190.103058</v>
+        <v>151.2205863333333</v>
       </c>
       <c r="H30">
-        <v>570.309174</v>
+        <v>453.661759</v>
       </c>
       <c r="I30">
-        <v>0.2272086367106644</v>
+        <v>0.1189389460274475</v>
       </c>
       <c r="J30">
-        <v>0.2272086367106644</v>
+        <v>0.1189389460274475</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.29111</v>
+        <v>2.936864333333334</v>
       </c>
       <c r="N30">
-        <v>6.873330000000001</v>
+        <v>8.810593000000001</v>
       </c>
       <c r="O30">
-        <v>0.05842027383488195</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="P30">
-        <v>0.05842027383488194</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="Q30">
-        <v>435.54701721438</v>
+        <v>444.1143464681209</v>
       </c>
       <c r="R30">
-        <v>3919.92315492942</v>
+        <v>3997.029118213087</v>
       </c>
       <c r="S30">
-        <v>0.01327359077428723</v>
+        <v>0.01594830549372639</v>
       </c>
       <c r="T30">
-        <v>0.01327359077428722</v>
+        <v>0.01594830549372638</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>190.103058</v>
+        <v>151.2205863333333</v>
       </c>
       <c r="H31">
-        <v>570.309174</v>
+        <v>453.661759</v>
       </c>
       <c r="I31">
-        <v>0.2272086367106644</v>
+        <v>0.1189389460274475</v>
       </c>
       <c r="J31">
-        <v>0.2272086367106644</v>
+        <v>0.1189389460274475</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>14.550925</v>
+        <v>1.962244666666667</v>
       </c>
       <c r="N31">
-        <v>43.652775</v>
+        <v>5.886734000000001</v>
       </c>
       <c r="O31">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="P31">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="Q31">
-        <v>2766.17533922865</v>
+        <v>296.7317890227896</v>
       </c>
       <c r="R31">
-        <v>24895.57805305785</v>
+        <v>2670.586101205106</v>
       </c>
       <c r="S31">
-        <v>0.08430106971613993</v>
+        <v>0.01065574498700665</v>
       </c>
       <c r="T31">
-        <v>0.0843010697161399</v>
+        <v>0.01065574498700665</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>282.8122453333333</v>
+        <v>666.558085</v>
       </c>
       <c r="H32">
-        <v>848.4367359999999</v>
+        <v>1999.674255</v>
       </c>
       <c r="I32">
-        <v>0.3380134195803869</v>
+        <v>0.5242653663649911</v>
       </c>
       <c r="J32">
-        <v>0.3380134195803869</v>
+        <v>0.5242653663649911</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.972749000000001</v>
+        <v>7.806827333333334</v>
       </c>
       <c r="N32">
-        <v>14.918247</v>
+        <v>23.420482</v>
       </c>
       <c r="O32">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="P32">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="Q32">
-        <v>1406.354310169088</v>
+        <v>5203.703877232324</v>
       </c>
       <c r="R32">
-        <v>12657.18879152179</v>
+        <v>46833.33489509091</v>
       </c>
       <c r="S32">
-        <v>0.04285960151037205</v>
+        <v>0.1868668728965429</v>
       </c>
       <c r="T32">
-        <v>0.04285960151037205</v>
+        <v>0.1868668728965429</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>282.8122453333333</v>
+        <v>666.558085</v>
       </c>
       <c r="H33">
-        <v>848.4367359999999</v>
+        <v>1999.674255</v>
       </c>
       <c r="I33">
-        <v>0.3380134195803869</v>
+        <v>0.5242653663649911</v>
       </c>
       <c r="J33">
-        <v>0.3380134195803869</v>
+        <v>0.5242653663649911</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.661741999999999</v>
+        <v>4.661742</v>
       </c>
       <c r="N33">
         <v>13.985226</v>
       </c>
       <c r="O33">
-        <v>0.118868253461235</v>
+        <v>0.2128407641993771</v>
       </c>
       <c r="P33">
-        <v>0.118868253461235</v>
+        <v>0.212840764199377</v>
       </c>
       <c r="Q33">
-        <v>1318.397722184704</v>
+        <v>3107.32182028407</v>
       </c>
       <c r="R33">
-        <v>11865.57949966233</v>
+        <v>27965.89638255664</v>
       </c>
       <c r="S33">
-        <v>0.04017906483198021</v>
+        <v>0.1115850412203911</v>
       </c>
       <c r="T33">
-        <v>0.04017906483198021</v>
+        <v>0.1115850412203911</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>282.8122453333333</v>
+        <v>666.558085</v>
       </c>
       <c r="H34">
-        <v>848.4367359999999</v>
+        <v>1999.674255</v>
       </c>
       <c r="I34">
-        <v>0.3380134195803869</v>
+        <v>0.5242653663649911</v>
       </c>
       <c r="J34">
-        <v>0.3380134195803869</v>
+        <v>0.5242653663649911</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.194976</v>
+        <v>2.225227333333333</v>
       </c>
       <c r="N34">
-        <v>21.584928</v>
+        <v>6.675682</v>
       </c>
       <c r="O34">
-        <v>0.1834623689632552</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="P34">
-        <v>0.1834623689632551</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="Q34">
-        <v>2034.827317679445</v>
+        <v>1483.243269996323</v>
       </c>
       <c r="R34">
-        <v>18313.445859115</v>
+        <v>13349.18942996691</v>
       </c>
       <c r="S34">
-        <v>0.06201274269758852</v>
+        <v>0.05326379789244899</v>
       </c>
       <c r="T34">
-        <v>0.0620127426975885</v>
+        <v>0.05326379789244899</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>282.8122453333333</v>
+        <v>666.558085</v>
       </c>
       <c r="H35">
-        <v>848.4367359999999</v>
+        <v>1999.674255</v>
       </c>
       <c r="I35">
-        <v>0.3380134195803869</v>
+        <v>0.5242653663649911</v>
       </c>
       <c r="J35">
-        <v>0.3380134195803869</v>
+        <v>0.5242653663649911</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.546219000000001</v>
+        <v>2.309581</v>
       </c>
       <c r="N35">
-        <v>16.638657</v>
+        <v>6.928743</v>
       </c>
       <c r="O35">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521494</v>
       </c>
       <c r="P35">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521493</v>
       </c>
       <c r="Q35">
-        <v>1568.538648500395</v>
+        <v>1539.469888512385</v>
       </c>
       <c r="R35">
-        <v>14116.84783650355</v>
+        <v>13855.22899661147</v>
       </c>
       <c r="S35">
-        <v>0.04780227922809982</v>
+        <v>0.05528291593289206</v>
       </c>
       <c r="T35">
-        <v>0.04780227922809982</v>
+        <v>0.05528291593289204</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>282.8122453333333</v>
+        <v>666.558085</v>
       </c>
       <c r="H36">
-        <v>848.4367359999999</v>
+        <v>1999.674255</v>
       </c>
       <c r="I36">
-        <v>0.3380134195803869</v>
+        <v>0.5242653663649911</v>
       </c>
       <c r="J36">
-        <v>0.3380134195803869</v>
+        <v>0.5242653663649911</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.29111</v>
+        <v>2.936864333333334</v>
       </c>
       <c r="N36">
-        <v>6.873330000000001</v>
+        <v>8.810593000000001</v>
       </c>
       <c r="O36">
-        <v>0.05842027383488195</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="P36">
-        <v>0.05842027383488194</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="Q36">
-        <v>647.9539634056533</v>
+        <v>1957.590665931469</v>
       </c>
       <c r="R36">
-        <v>5831.58567065088</v>
+        <v>17618.31599338322</v>
       </c>
       <c r="S36">
-        <v>0.01974683653175105</v>
+        <v>0.070297783037692</v>
       </c>
       <c r="T36">
-        <v>0.01974683653175105</v>
+        <v>0.07029778303769199</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>282.8122453333333</v>
+        <v>666.558085</v>
       </c>
       <c r="H37">
-        <v>848.4367359999999</v>
+        <v>1999.674255</v>
       </c>
       <c r="I37">
-        <v>0.3380134195803869</v>
+        <v>0.5242653663649911</v>
       </c>
       <c r="J37">
-        <v>0.3380134195803869</v>
+        <v>0.5242653663649911</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>14.550925</v>
+        <v>1.962244666666667</v>
       </c>
       <c r="N37">
-        <v>43.652775</v>
+        <v>5.886734000000001</v>
       </c>
       <c r="O37">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="P37">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="Q37">
-        <v>4115.179770926932</v>
+        <v>1307.950047314797</v>
       </c>
       <c r="R37">
-        <v>37036.6179383424</v>
+        <v>11771.55042583317</v>
       </c>
       <c r="S37">
-        <v>0.1254128947805953</v>
+        <v>0.04696895538502401</v>
       </c>
       <c r="T37">
-        <v>0.1254128947805953</v>
+        <v>0.04696895538502401</v>
       </c>
     </row>
   </sheetData>
